--- a/carga/CONVERSIÓN 2023.xlsx
+++ b/carga/CONVERSIÓN 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\BARLOVENTO SRL\ANALISIS INFORMACIÓN GANADERA BASE DATOS\CONVERSIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133C596-1FB2-4EEA-AB07-39A660F6061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F1145-E033-406E-BC0A-814458039CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F7186F9-6F66-4B1E-BD47-49D29253A08F}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F73D16-2278-4A22-8074-048BCA5C9DF4}">
   <dimension ref="A1:XFB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="M5" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,7 +870,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="16">
-        <f t="shared" ref="E6:E14" si="0">D6-C6</f>
+        <f t="shared" ref="E6:E17" si="0">D6-C6</f>
         <v>134.25038626609444</v>
       </c>
       <c r="F6" s="17">
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="16">
-        <f t="shared" ref="T6:T14" si="1">W6/X6</f>
+        <f t="shared" ref="T6:T17" si="1">W6/X6</f>
         <v>66.374999999999986</v>
       </c>
       <c r="U6" s="16">
@@ -948,7 +948,7 @@
         <v>405.33</v>
       </c>
       <c r="AF6" s="16">
-        <f t="shared" ref="AF6:AF14" si="2">AE6-AD6</f>
+        <f t="shared" ref="AF6:AF17" si="2">AE6-AD6</f>
         <v>151.23999999999998</v>
       </c>
       <c r="AG6" s="16">
@@ -976,7 +976,7 @@
         <v>158.88210256410255</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" ref="F7:F14" si="3">E7/G7</f>
+        <f t="shared" ref="F7:F17" si="3">E7/G7</f>
         <v>138.15835005574135</v>
       </c>
       <c r="G7" s="16">
@@ -989,7 +989,7 @@
         <v>1.9</v>
       </c>
       <c r="K7" s="16">
-        <f t="shared" ref="K7:K14" si="4">N7/O7</f>
+        <f t="shared" ref="K7:K17" si="4">N7/O7</f>
         <v>146.17910447761193</v>
       </c>
       <c r="L7" s="16">
@@ -999,7 +999,7 @@
         <v>329.87</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N14" si="5">M7-L7</f>
+        <f t="shared" ref="N7:N17" si="5">M7-L7</f>
         <v>97.94</v>
       </c>
       <c r="O7" s="16">
@@ -1041,7 +1041,7 @@
         <v>1.01</v>
       </c>
       <c r="AC7" s="16">
-        <f t="shared" ref="AC7:AC14" si="7">AF7/AG7</f>
+        <f t="shared" ref="AC7:AC17" si="7">AF7/AG7</f>
         <v>143.84482758620692</v>
       </c>
       <c r="AD7" s="16">
@@ -1231,7 +1231,7 @@
         <v>367.32</v>
       </c>
       <c r="W9" s="16">
-        <f>V9-U9</f>
+        <f t="shared" ref="W9:W17" si="8">V9-U9</f>
         <v>174.31</v>
       </c>
       <c r="X9" s="16">
@@ -1334,7 +1334,7 @@
         <v>361.52</v>
       </c>
       <c r="W10" s="16">
-        <f>V10-U10</f>
+        <f t="shared" si="8"/>
         <v>170.07999999999998</v>
       </c>
       <c r="X10" s="16">
@@ -1437,7 +1437,7 @@
         <v>344.03</v>
       </c>
       <c r="W11" s="16">
-        <f>V11-U11</f>
+        <f t="shared" si="8"/>
         <v>135.48999999999998</v>
       </c>
       <c r="X11" s="16">
@@ -1540,7 +1540,7 @@
         <v>343.24090000000001</v>
       </c>
       <c r="W12" s="16">
-        <f>V12-U12</f>
+        <f t="shared" si="8"/>
         <v>134.4109</v>
       </c>
       <c r="X12" s="16">
@@ -1643,7 +1643,7 @@
         <v>339.46</v>
       </c>
       <c r="W13" s="16">
-        <f>V13-U13</f>
+        <f t="shared" si="8"/>
         <v>126.49999999999997</v>
       </c>
       <c r="X13" s="16">
@@ -1746,7 +1746,7 @@
         <v>348.64</v>
       </c>
       <c r="W14" s="16">
-        <f>V14-U14</f>
+        <f t="shared" si="8"/>
         <v>126.36999999999998</v>
       </c>
       <c r="X14" s="16">
@@ -1789,47 +1789,211 @@
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
+      <c r="C15" s="16">
+        <v>225.54580000000001</v>
+      </c>
+      <c r="D15" s="16">
+        <v>401.90469999999999</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>176.35889999999998</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="3"/>
+        <v>159.03318833051983</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.1089439999999999</v>
+      </c>
+      <c r="H15" s="16">
+        <v>6.425192</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="4"/>
+        <v>88.015014789471678</v>
+      </c>
+      <c r="L15" s="16">
+        <v>310.32530000000003</v>
+      </c>
+      <c r="M15" s="16">
+        <v>365.40359999999998</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="5"/>
+        <v>55.078299999999956</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0.62578299999999998</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>1.198758</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="1"/>
+        <v>119.60823567708336</v>
+      </c>
+      <c r="U15" s="16">
+        <v>198.5093</v>
+      </c>
+      <c r="V15" s="16">
+        <v>345.48390000000001</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="8"/>
+        <v>146.97460000000001</v>
+      </c>
+      <c r="X15" s="16">
+        <v>1.2287999999999999</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>5.6862729999999999</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>36.427700000000002</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="AC15" s="16">
+        <f t="shared" si="7"/>
+        <v>163.65956045765083</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>246.33</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>445.16</v>
+      </c>
+      <c r="AF15" s="16">
+        <f t="shared" si="2"/>
+        <v>198.83</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>1.2149000000000001</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>6.6565000000000003</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="16" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="C16" s="16">
+        <v>211.99</v>
+      </c>
+      <c r="D16" s="16">
+        <v>379.14</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
+        <v>167.14999999999998</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="3"/>
+        <v>168.83838383838381</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="H16" s="16">
+        <v>6.0867000000000004</v>
+      </c>
       <c r="I16"/>
-      <c r="P16" s="18"/>
+      <c r="J16" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="4"/>
+        <v>124.89347290640399</v>
+      </c>
+      <c r="L16" s="16">
+        <v>254.79079999999999</v>
+      </c>
+      <c r="M16" s="16">
+        <v>295.3562</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="5"/>
+        <v>40.565400000000011</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0</v>
+      </c>
       <c r="R16"/>
+      <c r="S16" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="1"/>
+        <v>144.42686956521737</v>
+      </c>
+      <c r="U16" s="16">
+        <v>192.5</v>
+      </c>
+      <c r="V16" s="16">
+        <v>358.59089999999998</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="8"/>
+        <v>166.09089999999998</v>
+      </c>
+      <c r="X16" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>5.83</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>41.728000000000002</v>
+      </c>
       <c r="AA16"/>
+      <c r="AB16" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="AC16" s="16">
+        <f t="shared" si="7"/>
+        <v>129.18179760820388</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>298.82</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>459.22</v>
+      </c>
+      <c r="AF16" s="16">
+        <f t="shared" si="2"/>
+        <v>160.40000000000003</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>1.2416609999999999</v>
+      </c>
+      <c r="AH16" s="16">
+        <v>6.9711999999999996</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>42.23</v>
+      </c>
       <c r="AP16" s="18"/>
       <c r="AR16"/>
       <c r="BA16"/>
@@ -5607,163 +5771,231 @@
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
+      <c r="C17" s="16">
+        <v>188.78</v>
+      </c>
+      <c r="D17" s="16">
+        <v>375.57</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>186.79</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="3"/>
+        <v>177.89523809523808</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6.21</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="4"/>
+        <v>93.545454545454561</v>
+      </c>
+      <c r="L17" s="16">
+        <v>221.99</v>
+      </c>
+      <c r="M17" s="16">
+        <v>252.86</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="5"/>
+        <v>30.870000000000005</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="1"/>
+        <v>148.38938053097345</v>
+      </c>
+      <c r="U17" s="16">
+        <v>187.16</v>
+      </c>
+      <c r="V17" s="16">
+        <v>354.84</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="8"/>
+        <v>167.67999999999998</v>
+      </c>
+      <c r="X17" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>46.95</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="7"/>
+        <v>181.98412698412696</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>196.41</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>425.71</v>
+      </c>
+      <c r="AF17" s="16">
+        <f t="shared" si="2"/>
+        <v>229.29999999999998</v>
+      </c>
+      <c r="AG17" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="AH17" s="16">
+        <v>6.15</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>47.82</v>
+      </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1">
-        <f>AVERAGE(C6:C14)</f>
-        <v>215.29138158296959</v>
+        <f>AVERAGE(C6:C17)</f>
+        <v>213.66151952056055</v>
       </c>
       <c r="D19" s="1">
-        <f>AVERAGE(D6:D14)</f>
-        <v>386.35990288461539</v>
+        <f>AVERAGE(D6:D17)</f>
+        <v>386.1358111888112</v>
       </c>
       <c r="E19" s="1">
-        <f>AVERAGE(E6:E14)</f>
-        <v>171.52630987002189</v>
+        <f>AVERAGE(E6:E17)</f>
+        <v>172.83630740251638</v>
       </c>
       <c r="F19" s="1">
-        <f>AVERAGE(F6:F14)</f>
-        <v>166.379285022</v>
+        <f>AVERAGE(F6:F17)</f>
+        <v>166.93169795517846</v>
       </c>
       <c r="G19" s="1">
-        <f>AVERAGE(G6:G14)</f>
-        <v>1.0556666666666665</v>
+        <f>AVERAGE(G6:G17)</f>
+        <v>1.054162</v>
       </c>
       <c r="H19" s="1">
-        <f>AVERAGE(H6:H14)</f>
-        <v>6.7158777777777789</v>
+        <f>AVERAGE(H6:H17)</f>
+        <v>6.597065999999999</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <f>AVERAGE(J6:J14)</f>
-        <v>1.1155555555555554</v>
+        <f>AVERAGE(J6:J17)</f>
+        <v>1.0991666666666664</v>
       </c>
       <c r="K19" s="1">
-        <f>AVERAGE(K6:K14)</f>
-        <v>132.96494165695702</v>
+        <f>AVERAGE(K6:K17)</f>
+        <v>125.26153476282862</v>
       </c>
       <c r="L19" s="1">
-        <f>AVERAGE(L6:L14)</f>
-        <v>225.49111111111111</v>
+        <f>AVERAGE(L6:L17)</f>
+        <v>234.71050833333334</v>
       </c>
       <c r="M19" s="1">
-        <f>AVERAGE(M6:M14)</f>
-        <v>298.3</v>
+        <f>AVERAGE(M6:M17)</f>
+        <v>299.85998333333339</v>
       </c>
       <c r="N19" s="1">
-        <f>AVERAGE(N6:N14)</f>
-        <v>72.808888888888916</v>
+        <f>AVERAGE(N6:N17)</f>
+        <v>65.14947500000001</v>
       </c>
       <c r="O19" s="1">
-        <f>AVERAGE(O6:O14)</f>
-        <v>0.54560844444444445</v>
+        <f>AVERAGE(O6:O17)</f>
+        <v>0.51592158333333338</v>
       </c>
       <c r="P19" s="1">
-        <f>AVERAGE(P6:P14)</f>
+        <f>AVERAGE(P6:P17)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f>AVERAGE(Q6:Q14)</f>
+        <f>AVERAGE(Q6:Q17)</f>
         <v>0</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <f>AVERAGE(S6:S14)</f>
-        <v>1.4644444444444444</v>
+        <f>AVERAGE(S6:S17)</f>
+        <v>1.4132298333333333</v>
       </c>
       <c r="T19" s="1">
-        <f>AVERAGE(T6:T14)</f>
-        <v>118.24279194068168</v>
+        <f>AVERAGE(T6:T17)</f>
+        <v>123.05080110328412</v>
       </c>
       <c r="U19" s="1">
-        <f>AVERAGE(U6:U14)</f>
-        <v>215.24888888888887</v>
+        <f>AVERAGE(U6:U17)</f>
+        <v>209.61744166666665</v>
       </c>
       <c r="V19" s="1">
-        <f>AVERAGE(V6:V14)</f>
-        <v>351.61898888888879</v>
+        <f>AVERAGE(V6:V17)</f>
+        <v>351.95714166666659</v>
       </c>
       <c r="W19" s="1">
-        <f>AVERAGE(W6:W14)</f>
-        <v>136.28009999999998</v>
+        <f>AVERAGE(W6:W17)</f>
+        <v>142.27219999999997</v>
       </c>
       <c r="X19" s="1">
-        <f>AVERAGE(X6:X14)</f>
-        <v>1.1635</v>
+        <f>AVERAGE(X6:X17)</f>
+        <v>1.165025</v>
       </c>
       <c r="Y19" s="1">
-        <f>AVERAGE(Y6:Y14)</f>
-        <v>6.4644444444444442</v>
+        <f>AVERAGE(Y6:Y17)</f>
+        <v>6.3330227500000005</v>
       </c>
       <c r="Z19" s="1">
-        <f>AVERAGE(Z6:Z14)</f>
-        <v>25.055555555555557</v>
+        <f>AVERAGE(Z6:Z17)</f>
+        <v>29.217141666666667</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
-        <f>AVERAGE(AB6:AB14)</f>
-        <v>1.1544444444444444</v>
+        <f>AVERAGE(AB6:AB17)</f>
+        <v>1.1583333333333332</v>
       </c>
       <c r="AC19" s="1">
-        <f>AVERAGE(AC6:AC14)</f>
-        <v>172.87849100715096</v>
+        <f>AVERAGE(AC6:AC17)</f>
+        <v>169.22765867619503</v>
       </c>
       <c r="AD19" s="1">
-        <f>AVERAGE(AD6:AD14)</f>
-        <v>222.26999999999998</v>
+        <f>AVERAGE(AD6:AD17)</f>
+        <v>228.49916666666664</v>
       </c>
       <c r="AE19" s="1">
-        <f>AVERAGE(AE6:AE14)</f>
-        <v>420.27777777777771</v>
+        <f>AVERAGE(AE6:AE17)</f>
+        <v>426.04916666666668</v>
       </c>
       <c r="AF19" s="1">
-        <f>AVERAGE(AF6:AF14)</f>
-        <v>198.00777777777779</v>
+        <f>AVERAGE(AF6:AF17)</f>
+        <v>197.55000000000004</v>
       </c>
       <c r="AG19" s="1">
-        <f>AVERAGE(AG6:AG14)</f>
-        <v>1.1601198888888886</v>
+        <f>AVERAGE(AG6:AG17)</f>
+        <v>1.1798033333333333</v>
       </c>
       <c r="AH19" s="1">
-        <f>AVERAGE(AH6:AH14)</f>
-        <v>6.9025777777777773</v>
+        <f>AVERAGE(AH6:AH17)</f>
+        <v>6.8250749999999991</v>
       </c>
       <c r="AI19" s="1">
-        <f>AVERAGE(AI6:AI14)</f>
-        <v>24.391366666666666</v>
+        <f>AVERAGE(AI6:AI17)</f>
+        <v>28.622691666666668</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.3">
